--- a/DDAf_2022_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -138,7 +138,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -180,13 +180,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -204,7 +204,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -273,7 +273,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -285,7 +285,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -387,7 +387,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -405,7 +405,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -423,7 +423,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="180">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="179">
   <si>
     <t>Tableau 23 : Durabilité écologique</t>
   </si>
@@ -1320,11 +1317,9 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1344,66 +1339,66 @@
     </row>
     <row r="2" spans="1:18" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="12">
         <v>124670</v>
@@ -1418,7 +1413,7 @@
         <v>67162.44</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="12">
         <v>3318.4319999999998</v>
@@ -1456,10 +1451,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="15">
         <v>58173</v>
@@ -1492,7 +1487,7 @@
         <v>27.661999999999999</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="15">
         <v>2342</v>
@@ -1512,10 +1507,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="C5" s="19">
         <v>1736</v>
@@ -1533,31 +1528,31 @@
         <v>16</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="19">
         <v>2426</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="19">
         <v>22.762599999999999</v>
@@ -1568,10 +1563,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="19">
         <v>3036</v>
@@ -1586,34 +1581,34 @@
         <v>34.520000000000003</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="19">
         <v>2323</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="19">
         <v>1.6394</v>
@@ -1624,10 +1619,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="C7" s="19">
         <v>11848</v>
@@ -1680,10 +1675,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="C8" s="19">
         <v>79938</v>
@@ -1736,10 +1731,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="C9" s="19">
         <v>82429</v>
@@ -1792,10 +1787,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="C10" s="19">
         <v>121909</v>
@@ -1848,10 +1843,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="15">
         <v>75261</v>
@@ -1884,7 +1879,7 @@
         <v>1723.9359999999999</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="15">
         <v>2002</v>
@@ -1904,10 +1899,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="C12" s="22">
         <v>39076</v>
@@ -1937,7 +1932,7 @@
         <v>816.39499999999998</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="23">
         <v>700.52599999999995</v>
@@ -1960,10 +1955,10 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="C13" s="26">
         <v>598076</v>
@@ -2016,10 +2011,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="C14" s="19">
         <v>2783</v>
@@ -2055,7 +2050,7 @@
         <v>9.3239999999999998</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="19">
         <v>6888.5</v>
@@ -2072,10 +2067,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="C15" s="19">
         <v>47544</v>
@@ -2128,10 +2123,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="19">
         <v>62298</v>
@@ -2146,7 +2141,7 @@
         <v>22333</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="19">
         <v>816.05499999999995</v>
@@ -2161,10 +2156,10 @@
         <v>816.05499999999995</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="19">
         <v>1786</v>
@@ -2184,10 +2179,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="C17" s="12">
         <v>128400</v>
@@ -2220,16 +2215,16 @@
         <v>1687.43</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="12">
         <v>2115</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="12">
         <v>242.76779999999999</v>
@@ -2240,10 +2235,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>52</v>
       </c>
       <c r="C18" s="12">
         <v>34200</v>
@@ -2296,10 +2291,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="15">
         <v>234486</v>
@@ -2317,25 +2312,25 @@
         <v>7781</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="15">
         <v>15571.37</v>
@@ -2352,10 +2347,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>56</v>
       </c>
       <c r="C20" s="12">
         <v>2805</v>
@@ -2370,13 +2365,13 @@
         <v>2456.7800000000002</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="12">
         <v>146.571</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="12">
         <v>127.422</v>
@@ -2391,13 +2386,13 @@
         <v>7.0220000000000002</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="12">
         <v>307.14659999999998</v>
@@ -2408,10 +2403,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="C21" s="12">
         <v>26767</v>
@@ -2429,22 +2424,22 @@
         <v>1000</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="12">
         <v>2633</v>
@@ -2464,10 +2459,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="C22" s="19">
         <v>96</v>
@@ -2482,34 +2477,34 @@
         <v>52.52</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" s="19">
         <v>2446</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="19">
         <v>4.9741999999999997</v>
@@ -2520,10 +2515,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26">
         <v>539379</v>
@@ -2576,10 +2571,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C24" s="19">
         <v>186.1</v>
@@ -2594,34 +2589,34 @@
         <v>33.36</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="19">
         <v>1.2433000000000001</v>
@@ -2632,10 +2627,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C25" s="19">
         <v>2320</v>
@@ -2653,31 +2648,31 @@
         <v>2</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N25" s="19">
         <v>2694</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="19">
         <v>0.30180000000000001</v>
@@ -2688,10 +2683,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C26" s="19">
         <v>12176.581700000001</v>
@@ -2727,7 +2722,7 @@
         <v>40.697000000000003</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O26" s="19">
         <v>4599.34</v>
@@ -2744,10 +2739,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="C27" s="19">
         <v>113624.2497</v>
@@ -2800,10 +2795,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C28" s="19">
         <v>58037</v>
@@ -2856,10 +2851,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="C29" s="19">
         <v>58729.5</v>
@@ -2912,10 +2907,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="C30" s="19">
         <v>204</v>
@@ -2968,10 +2963,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C31" s="19">
         <v>2634</v>
@@ -3024,10 +3019,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C32" s="19">
         <v>46</v>
@@ -3042,13 +3037,13 @@
         <v>33.700000000000003</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="19">
         <v>16.164000000000001</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" s="19">
         <v>12.49</v>
@@ -3063,7 +3058,7 @@
         <v>0.124</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" s="19">
         <v>64.319999999999993</v>
@@ -3080,10 +3075,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C33" s="19">
         <v>63766</v>
@@ -3101,31 +3096,31 @@
         <v>1032</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="19">
         <v>373.45920000000001</v>
@@ -3136,10 +3131,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="C34" s="15">
         <v>64688.3</v>
@@ -3157,34 +3152,34 @@
         <v>197.84530000000001</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R34" s="16">
         <v>43122.593800000002</v>
@@ -3192,10 +3187,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="C35" s="19">
         <v>185410.5405</v>
@@ -3213,22 +3208,22 @@
         <v>487.16899999999998</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" s="19">
         <v>2578</v>
@@ -3248,10 +3243,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="C36" s="19">
         <v>94730</v>
@@ -3304,10 +3299,10 @@
     </row>
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="C37" s="19">
         <v>24155</v>
@@ -3325,22 +3320,22 @@
         <v>4103</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N37" s="19">
         <v>1981</v>
@@ -3360,10 +3355,10 @@
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="26">
         <v>680707.27190000005</v>
@@ -3416,10 +3411,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>92</v>
       </c>
       <c r="C39" s="12">
         <v>238174.1</v>
@@ -3434,7 +3429,7 @@
         <v>1939</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H39" s="12">
         <v>22659.957999999999</v>
@@ -3472,10 +3467,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C40" s="19">
         <v>100145</v>
@@ -3528,10 +3523,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>95</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>96</v>
       </c>
       <c r="C41" s="12">
         <v>175954</v>
@@ -3546,28 +3541,28 @@
         <v>217</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O41" s="12">
         <v>15100</v>
@@ -3584,10 +3579,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>97</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>98</v>
       </c>
       <c r="C42" s="12">
         <v>103070</v>
@@ -3602,34 +3597,34 @@
         <v>318.3</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N42" s="12">
         <v>2877</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="12">
         <v>11.089600000000001</v>
@@ -3640,10 +3635,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C43" s="19">
         <v>44655</v>
@@ -3696,10 +3691,10 @@
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="C44" s="19">
         <v>16361</v>
@@ -3752,10 +3747,10 @@
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="26">
         <v>678359.1</v>
@@ -3808,10 +3803,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C46" s="19">
         <v>11476</v>
@@ -3844,7 +3839,7 @@
         <v>27.956</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N46" s="19">
         <v>2755</v>
@@ -3864,10 +3859,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C47" s="19">
         <v>27422</v>
@@ -3920,10 +3915,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C48" s="19">
         <v>403</v>
@@ -3938,7 +3933,7 @@
         <v>45.42</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="19">
         <v>179.67699999999999</v>
@@ -3962,10 +3957,10 @@
         <v>2541</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P48" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q48" s="19">
         <v>2.5979999999999999</v>
@@ -3976,10 +3971,10 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C49" s="19">
         <v>32246</v>
@@ -4032,10 +4027,10 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C50" s="19">
         <v>1130</v>
@@ -4068,7 +4063,7 @@
         <v>92.331999999999994</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N50" s="19">
         <v>2533</v>
@@ -4088,10 +4083,10 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="C51" s="15">
         <v>23853</v>
@@ -4144,10 +4139,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C52" s="19">
         <v>24586</v>
@@ -4200,10 +4195,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="C53" s="19">
         <v>3613</v>
@@ -4236,16 +4231,16 @@
         <v>167.554</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N53" s="19">
         <v>2229</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P53" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="19">
         <v>95.445599999999999</v>
@@ -4256,10 +4251,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C54" s="19">
         <v>11137</v>
@@ -4277,31 +4272,31 @@
         <v>1505</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N54" s="19">
         <v>2168</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P54" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="19">
         <v>915.50620000000004</v>
@@ -4312,10 +4307,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C55" s="19">
         <v>124019</v>
@@ -4368,10 +4363,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="C56" s="19">
         <v>126700</v>
@@ -4424,10 +4419,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>127</v>
       </c>
       <c r="C57" s="12">
         <v>92377</v>
@@ -4480,10 +4475,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="C58" s="19">
         <v>19671</v>
@@ -4516,7 +4511,7 @@
         <v>175.339</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N58" s="19">
         <v>2545</v>
@@ -4536,10 +4531,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>131</v>
       </c>
       <c r="C59" s="19">
         <v>7230</v>
@@ -4578,10 +4573,10 @@
         <v>2369</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P59" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q59" s="19">
         <v>118.1507</v>
@@ -4592,10 +4587,10 @@
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="C60" s="15">
         <v>5679</v>
@@ -4649,7 +4644,7 @@
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="26">
         <v>511542</v>
@@ -4703,7 +4698,7 @@
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="32">
         <v>3008063.3719000001</v>
@@ -4757,7 +4752,7 @@
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="32">
         <v>10402845.0506</v>
@@ -4811,7 +4806,7 @@
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" s="36">
         <v>2041468.7</v>
@@ -4865,7 +4860,7 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="39">
         <v>2515514.2400000002</v>
@@ -4919,7 +4914,7 @@
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="42">
         <v>13410908.422499999</v>
@@ -4973,7 +4968,7 @@
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" s="39">
         <v>1178938.9719</v>
@@ -5027,7 +5022,7 @@
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="39">
         <v>1394744.2222</v>
@@ -5081,7 +5076,7 @@
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="39">
         <v>247027.3</v>
@@ -5135,7 +5130,7 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="39">
         <v>666683</v>
@@ -5189,7 +5184,7 @@
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="39">
         <v>511542</v>
@@ -5243,7 +5238,7 @@
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" s="39">
         <v>524177.67190000002</v>
@@ -5297,7 +5292,7 @@
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="39">
         <v>986457.59999999998</v>
@@ -5351,7 +5346,7 @@
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="39">
         <v>578214.1</v>
@@ -5405,7 +5400,7 @@
     <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="42">
         <v>211525</v>
@@ -5459,7 +5454,7 @@
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="39">
         <v>449245.94</v>
@@ -5513,7 +5508,7 @@
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="39">
         <v>1770860.2</v>
@@ -5567,7 +5562,7 @@
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="39">
         <v>425430.48959999997</v>
@@ -5621,7 +5616,7 @@
     <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="42">
         <v>3774028.9286000002</v>
@@ -5675,7 +5670,7 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="39">
         <v>926417.1</v>
@@ -5729,7 +5724,7 @@
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="39">
         <v>2906422.19</v>
@@ -5783,7 +5778,7 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C82" s="39">
         <v>2081646.2719000001</v>
@@ -5837,7 +5832,7 @@
     <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="42">
         <v>7496422.8606000002</v>
@@ -5891,7 +5886,7 @@
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="39">
         <v>1376453.1719</v>
@@ -5945,7 +5940,7 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="39">
         <v>148655</v>
@@ -5999,7 +5994,7 @@
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="39">
         <v>1163323.2</v>
@@ -6053,7 +6048,7 @@
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87" s="39">
         <v>1476413.12</v>
@@ -6107,7 +6102,7 @@
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="39">
         <v>468241</v>
@@ -6161,7 +6156,7 @@
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C89" s="39">
         <v>5017833.0199999996</v>
@@ -6215,7 +6210,7 @@
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90" s="42">
         <v>3668784.9106000001</v>
@@ -6269,7 +6264,7 @@
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91" s="39">
         <v>1810969.2719000001</v>
@@ -6323,7 +6318,7 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="39">
         <v>269295</v>
@@ -6377,7 +6372,7 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="39">
         <v>4548.1000000000004</v>
@@ -6431,7 +6426,7 @@
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" s="39">
         <v>116595.9</v>
@@ -6485,7 +6480,7 @@
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95" s="39">
         <v>865853.54969999997</v>
@@ -6539,7 +6534,7 @@
     <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C96" s="42">
         <v>832383.3</v>
@@ -6593,7 +6588,7 @@
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" s="39">
         <v>2249219.2719000001</v>
@@ -6647,7 +6642,7 @@
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" s="39">
         <v>762952.2</v>
@@ -6701,7 +6696,7 @@
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C99" s="42">
         <v>958913.0405</v>
@@ -6774,7 +6769,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -6796,7 +6791,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -6818,7 +6813,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -6840,7 +6835,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -6862,7 +6857,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -6922,7 +6917,7 @@
     </row>
     <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -6962,7 +6957,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -6983,7 +6978,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -7023,7 +7018,7 @@
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -7044,7 +7039,7 @@
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -7084,7 +7079,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="180">
   <si>
     <t>Tableau 23 : Durabilité écologique</t>
   </si>
@@ -513,19 +513,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -540,7 +543,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 18/11/2021).</t>
@@ -6321,40 +6324,40 @@
         <v>162</v>
       </c>
       <c r="C92" s="39">
-        <v>269295</v>
+        <v>268076</v>
       </c>
       <c r="D92" s="39">
-        <v>98811.173599999995</v>
+        <v>98624.173599999995</v>
       </c>
       <c r="E92" s="39">
-        <v>40839.873599999999</v>
+        <v>40694.873599999999</v>
       </c>
       <c r="F92" s="39">
-        <v>70254.720000000001</v>
+        <v>69812.42</v>
       </c>
       <c r="G92" s="40">
         <v>5762</v>
       </c>
       <c r="H92" s="39">
-        <v>55631.637000000002</v>
+        <v>55493.853000000003</v>
       </c>
       <c r="I92" s="39">
-        <v>20711.584999999999</v>
+        <v>20710.272000000001</v>
       </c>
       <c r="J92" s="39">
-        <v>43916.201999999997</v>
+        <v>43778.417999999998</v>
       </c>
       <c r="K92" s="39">
-        <v>53959.124000000003</v>
+        <v>53821.423999999999</v>
       </c>
       <c r="L92" s="39">
         <v>11687.286</v>
       </c>
       <c r="M92" s="40">
-        <v>1647.3720000000001</v>
+        <v>1647.287</v>
       </c>
       <c r="N92" s="39">
-        <v>2492.20310055139</v>
+        <v>2492.1058054639302</v>
       </c>
       <c r="O92" s="39">
         <v>1984419.07</v>
@@ -6366,7 +6369,7 @@
         <v>5222.8811999999998</v>
       </c>
       <c r="R92" s="40">
-        <v>275306.3493</v>
+        <v>274792.85930000001</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
@@ -6534,7 +6537,7 @@
     <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C96" s="42">
         <v>832383.3</v>
@@ -6588,7 +6591,7 @@
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C97" s="39">
         <v>2249219.2719000001</v>
@@ -6642,7 +6645,7 @@
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C98" s="39">
         <v>762952.2</v>
@@ -6696,7 +6699,7 @@
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C99" s="42">
         <v>958913.0405</v>
@@ -6769,7 +6772,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -6791,7 +6794,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -6813,7 +6816,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -6835,7 +6838,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -6857,7 +6860,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -6917,7 +6920,7 @@
     </row>
     <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -6957,7 +6960,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -6978,7 +6981,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -7018,7 +7021,7 @@
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -7039,7 +7042,7 @@
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab23.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
     <t>Source : FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 18/11/2021).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -7082,7 +7082,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
